--- a/storage/app/public/Download/template_qcc.xlsx
+++ b/storage/app/public/Download/template_qcc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ngampus yakkk\semester 7\sai\dummy_data\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\DataKaryawan\storage\app\public\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB6B15E-A11E-4361-BC6C-7C39502F1976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C9F8E8-40E4-466C-860E-175F8AD2AE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61001CB9-E7D3-4427-A8CC-EFACD591D7D3}"/>
   </bookViews>
@@ -126,7 +126,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{78D2E36B-853F-4D81-B89B-3068C688853A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5AF321AD-42F9-46DC-8EC5-FF15147D102A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fasilitator_qcc:
+Nik fasilitator QCC tidak boleh kosong dan terdiri dari 6 karakter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{78D2E36B-853F-4D81-B89B-3068C688853A}">
       <text>
         <r>
           <rPr>
@@ -150,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{AF87E3B0-1637-44D8-8BAA-E91648AB08C0}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{AF87E3B0-1637-44D8-8BAA-E91648AB08C0}">
       <text>
         <r>
           <rPr>
@@ -179,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nik</t>
   </si>
@@ -198,12 +213,15 @@
   <si>
     <t>juara_sai</t>
   </si>
+  <si>
+    <t>fasilitator_qcc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +256,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -394,19 +419,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -414,12 +443,154 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -439,134 +610,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -589,22 +632,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C24E80F-E72B-4B68-B531-486EC224262D}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
-  <autoFilter ref="A1:F20" xr:uid="{3C24E80F-E72B-4B68-B531-486EC224262D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C24E80F-E72B-4B68-B531-486EC224262D}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G20" xr:uid="{3C24E80F-E72B-4B68-B531-486EC224262D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4FD16313-558A-4FC7-9D7C-68C9DC437222}" name="nik" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B62F610D-68D2-4AE3-BC43-DF1A56BA13CA}" name="tema" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8752AF14-26BD-4395-AA48-99E668335748}" name="kontes" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{54978E69-0942-4615-B6E2-27C3A89DCA48}" name="nama_qcc" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{340CD778-47AA-4465-8A2D-B6B5025A53C7}" name="juara_sai" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{04E5CA91-8CBD-49A6-9D64-7C16ED6FE9ED}" name="juara_pasi" dataDxfId="4"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4FD16313-558A-4FC7-9D7C-68C9DC437222}" name="nik" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B62F610D-68D2-4AE3-BC43-DF1A56BA13CA}" name="tema" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8752AF14-26BD-4395-AA48-99E668335748}" name="kontes" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{54978E69-0942-4615-B6E2-27C3A89DCA48}" name="nama_qcc" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{2BDEA03F-6EE6-4768-8363-BF27BC9943B6}" name="fasilitator_qcc" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{340CD778-47AA-4465-8A2D-B6B5025A53C7}" name="juara_sai" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{04E5CA91-8CBD-49A6-9D64-7C16ED6FE9ED}" name="juara_pasi" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FD28E2-A0DF-4A82-AE52-85F71A5B2837}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,12 +964,13 @@
     <col min="2" max="2" width="113.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" customWidth="1"/>
     <col min="4" max="4" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.90625" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -938,163 +984,185 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
